--- a/DOCS/TIMESHEET/TimeSheet.xlsx
+++ b/DOCS/TIMESHEET/TimeSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simon/CODE/CMP3_1617/TIMESHEET/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Simon/CODE/CMP3_1617/DOCS/TIMESHEET/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>Milestone 2 pushen + details veranderen aan HTML5 template</t>
+  </si>
+  <si>
+    <t>HTML5 template integreren (proberen)</t>
+  </si>
+  <si>
+    <t>Lay-out beta veranderen</t>
+  </si>
+  <si>
+    <t>45min</t>
+  </si>
+  <si>
+    <t>Vieuw aanmaken met aanbod</t>
+  </si>
+  <si>
+    <t>User points proberen integregren, vieuw proberen te optimaliseren</t>
+  </si>
+  <si>
+    <t>3u</t>
   </si>
 </sst>
 </file>
@@ -490,7 +508,7 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -653,94 +671,142 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="21">
+        <v>42694</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="E13" s="11"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="21">
+        <v>42699</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="21">
+        <v>42700</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="21">
+        <v>42706</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="21">
+        <v>42689</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="21">
+        <v>42721</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="17"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="17"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="17"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="17"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="17"/>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="17"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
